--- a/maps/CT/CT20C_candidates.xlsx
+++ b/maps/CT/CT20C_candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10424"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FA3745-D595-C444-A328-ED587550DA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74EACEA-BB92-544A-A218-6004C883060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -17,8 +17,8 @@
     <sheet name="DATA" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$101</definedName>
-    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$101</definedName>
+    <definedName name="NC20C_candidates" localSheetId="1">DATA!$A$1:$I$100</definedName>
+    <definedName name="WA20C_energies" localSheetId="1">DATA!$A$1:$I$100</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/CT/CT20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="116">
   <si>
     <t>#</t>
   </si>
@@ -132,162 +132,93 @@
     <t>CT20C_I044K01N05</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>CT20C_I097K01N05</t>
   </si>
   <si>
-    <t>0.002262</t>
-  </si>
-  <si>
     <t>CT20C_I026K01N05</t>
   </si>
   <si>
-    <t>0.075631</t>
-  </si>
-  <si>
     <t>CT20C_I047K01N05</t>
   </si>
   <si>
     <t>CT20C_I022K01N05</t>
   </si>
   <si>
-    <t>0.037073</t>
-  </si>
-  <si>
     <t>CT20C_I066K01N05</t>
   </si>
   <si>
-    <t>0.118376</t>
-  </si>
-  <si>
     <t>CT20C_I042K01N05</t>
   </si>
   <si>
-    <t>0.103762</t>
-  </si>
-  <si>
     <t>CT20C_I092K01N05</t>
   </si>
   <si>
-    <t>0.099219</t>
-  </si>
-  <si>
     <t>CT20C_I003K01N05</t>
   </si>
   <si>
-    <t>0.115814</t>
-  </si>
-  <si>
     <t>CT20C_I038K01N05</t>
   </si>
   <si>
     <t>CT20C_I069K01N05</t>
   </si>
   <si>
-    <t>0.115808</t>
-  </si>
-  <si>
     <t>CT20C_I082K01N05</t>
   </si>
   <si>
-    <t>0.061130</t>
-  </si>
-  <si>
     <t>CT20C_I079K01N05</t>
   </si>
   <si>
-    <t>0.032129</t>
-  </si>
-  <si>
     <t>CT20C_I016K01N05</t>
   </si>
   <si>
-    <t>0.055050</t>
-  </si>
-  <si>
     <t>CT20C_I059K01N05</t>
   </si>
   <si>
     <t>CT20C_I075K01N05</t>
   </si>
   <si>
-    <t>0.139743</t>
-  </si>
-  <si>
     <t>CT20C_I091K01N05</t>
   </si>
   <si>
     <t>CT20C_I074K01N05</t>
   </si>
   <si>
-    <t>0.057833</t>
-  </si>
-  <si>
     <t>CT20C_I017K01N05</t>
   </si>
   <si>
     <t>CT20C_I019K01N05</t>
   </si>
   <si>
-    <t>0.064439</t>
-  </si>
-  <si>
     <t>CT20C_I039K01N05</t>
   </si>
   <si>
-    <t>0.085014</t>
-  </si>
-  <si>
     <t>CT20C_I024K01N05</t>
   </si>
   <si>
-    <t>0.143806</t>
-  </si>
-  <si>
     <t>CT20C_I053K01N05</t>
   </si>
   <si>
     <t>CT20C_I027K01N05</t>
   </si>
   <si>
-    <t>0.119975</t>
-  </si>
-  <si>
     <t>CT20C_I045K01N05</t>
   </si>
   <si>
-    <t>0.053907</t>
-  </si>
-  <si>
     <t>CT20C_I030K01N05</t>
   </si>
   <si>
     <t>CT20C_I031K01N05</t>
   </si>
   <si>
-    <t>0.064599</t>
-  </si>
-  <si>
     <t>CT20C_I040K01N05</t>
   </si>
   <si>
-    <t>0.076337</t>
-  </si>
-  <si>
     <t>CT20C_I085K01N05</t>
   </si>
   <si>
-    <t>0.084663</t>
-  </si>
-  <si>
     <t>CT20C_I052K01N05</t>
   </si>
   <si>
-    <t>0.104735</t>
-  </si>
-  <si>
     <t>CT20C_I004K01N05</t>
   </si>
   <si>
@@ -306,96 +237,54 @@
     <t>CT20C_I034K01N05</t>
   </si>
   <si>
-    <t>0.237807</t>
-  </si>
-  <si>
     <t>CT20C_I061K01N05</t>
   </si>
   <si>
-    <t>0.409505</t>
-  </si>
-  <si>
     <t>CT20C_I065K01N05</t>
   </si>
   <si>
-    <t>0.472562</t>
-  </si>
-  <si>
     <t>CT20C_I028K01N05</t>
   </si>
   <si>
-    <t>0.464385</t>
-  </si>
-  <si>
     <t>CT20C_I078K01N05</t>
   </si>
   <si>
-    <t>0.517069</t>
-  </si>
-  <si>
     <t>CT20C_I037K01N05</t>
   </si>
   <si>
-    <t>0.503058</t>
-  </si>
-  <si>
     <t>CT20C_I009K01N05</t>
   </si>
   <si>
-    <t>0.638744</t>
-  </si>
-  <si>
     <t>CT20C_I099K01N05</t>
   </si>
   <si>
     <t>CT20C_I018K01N05</t>
   </si>
   <si>
-    <t>0.624388</t>
-  </si>
-  <si>
     <t>CT20C_I084K01N05</t>
   </si>
   <si>
     <t>CT20C_I057K01N05</t>
   </si>
   <si>
-    <t>0.626439</t>
-  </si>
-  <si>
     <t>CT20C_I073K01N05</t>
   </si>
   <si>
     <t>CT20C_I094K01N05</t>
   </si>
   <si>
-    <t>0.622725</t>
-  </si>
-  <si>
     <t>CT20C_I021K01N05</t>
   </si>
   <si>
-    <t>0.667611</t>
-  </si>
-  <si>
     <t>CT20C_I068K01N05</t>
   </si>
   <si>
-    <t>0.677241</t>
-  </si>
-  <si>
     <t>CT20C_I010K01N05</t>
   </si>
   <si>
-    <t>0.690606</t>
-  </si>
-  <si>
     <t>CT20C_I060K01N05</t>
   </si>
   <si>
-    <t>0.688811</t>
-  </si>
-  <si>
     <t>CT20C_I063K01N05</t>
   </si>
   <si>
@@ -405,27 +294,18 @@
     <t>CT20C_I072K01N05</t>
   </si>
   <si>
-    <t>0.675017</t>
-  </si>
-  <si>
     <t>CT20C_I000K01N05</t>
   </si>
   <si>
     <t>CT20C_I011K01N05</t>
   </si>
   <si>
-    <t>0.692847</t>
-  </si>
-  <si>
     <t>CT20C_I062K01N05</t>
   </si>
   <si>
     <t>CT20C_I013K01N05</t>
   </si>
   <si>
-    <t>0.681853</t>
-  </si>
-  <si>
     <t>CT20C_I067K01N05</t>
   </si>
   <si>
@@ -438,18 +318,12 @@
     <t>CT20C_I058K01N05</t>
   </si>
   <si>
-    <t>0.695434</t>
-  </si>
-  <si>
     <t>CT20C_I054K01N05</t>
   </si>
   <si>
     <t>CT20C_I032K01N05</t>
   </si>
   <si>
-    <t>0.697014</t>
-  </si>
-  <si>
     <t>CT20C_I046K01N05</t>
   </si>
   <si>
@@ -474,21 +348,12 @@
     <t>CT20C_I048K01N05</t>
   </si>
   <si>
-    <t>0.687035</t>
-  </si>
-  <si>
     <t>CT20C_I020K01N05</t>
   </si>
   <si>
-    <t>0.683542</t>
-  </si>
-  <si>
     <t>CT20C_I035K01N05</t>
   </si>
   <si>
-    <t>0.687143</t>
-  </si>
-  <si>
     <t>CT20C_I041K01N05</t>
   </si>
   <si>
@@ -498,27 +363,15 @@
     <t>CT20C_I064K01N05</t>
   </si>
   <si>
-    <t>0.693219</t>
-  </si>
-  <si>
     <t>CT20C_I029K01N05</t>
   </si>
   <si>
-    <t>0.735966</t>
-  </si>
-  <si>
     <t>CT20C_I050K01N05</t>
   </si>
   <si>
-    <t>0.735321</t>
-  </si>
-  <si>
     <t>CT20C_I088K01N05</t>
   </si>
   <si>
-    <t>0.737326</t>
-  </si>
-  <si>
     <t>CT20C_I071K01N05</t>
   </si>
   <si>
@@ -528,9 +381,6 @@
     <t>CT20C_I089K01N05</t>
   </si>
   <si>
-    <t>0.709022</t>
-  </si>
-  <si>
     <t>CT20C_I025K01N05</t>
   </si>
   <si>
@@ -540,79 +390,40 @@
     <t>CT20C_I008K01N05</t>
   </si>
   <si>
-    <t>CT20C_I014K01N05</t>
-  </si>
-  <si>
     <t>CT20C_I076K01N05</t>
   </si>
   <si>
-    <t>0.753655</t>
-  </si>
-  <si>
     <t>CT20C_I002K01N05</t>
   </si>
   <si>
-    <t>0.771116</t>
-  </si>
-  <si>
     <t>CT20C_I090K01N05</t>
   </si>
   <si>
-    <t>0.772251</t>
-  </si>
-  <si>
     <t>CT20C_I087K01N05</t>
   </si>
   <si>
-    <t>0.775670</t>
-  </si>
-  <si>
     <t>CT20C_I043K01N05</t>
   </si>
   <si>
-    <t>0.787784</t>
-  </si>
-  <si>
     <t>CT20C_I036K01N05</t>
   </si>
   <si>
-    <t>0.697774</t>
-  </si>
-  <si>
     <t>CT20C_I081K01N05</t>
   </si>
   <si>
-    <t>0.695949</t>
-  </si>
-  <si>
     <t>CT20C_I005K01N05</t>
   </si>
   <si>
-    <t>0.762241</t>
-  </si>
-  <si>
     <t>CT20C_I095K01N05</t>
   </si>
   <si>
-    <t>0.693288</t>
-  </si>
-  <si>
     <t>CT20C_I006K01N05</t>
   </si>
   <si>
-    <t>0.699434</t>
-  </si>
-  <si>
     <t>CT20C_I055K01N05</t>
   </si>
   <si>
-    <t>0.698553</t>
-  </si>
-  <si>
     <t>CT20C_I033K01N05</t>
-  </si>
-  <si>
-    <t>0.775928</t>
   </si>
 </sst>
 </file>
@@ -744,11 +555,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1094,23 +905,23 @@
         <v>10</v>
       </c>
       <c r="B4" s="22">
-        <f>MIN(DATA!E$2:E$101)</f>
-        <v>2.4199999999999998E-3</v>
+        <f>MIN(DATA!E$2:E$100)</f>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="C4" s="8">
-        <f>MIN(DATA!F$2:F$101)</f>
+        <f>MIN(DATA!F$2:F$100)</f>
         <v>0</v>
       </c>
       <c r="D4" s="8">
-        <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.71484000000000003</v>
+        <f>MIN(DATA!G$2:G$100)</f>
+        <v>0.72139699999999995</v>
       </c>
       <c r="E4" s="8">
-        <f>MIN(DATA!H$2:H$101)</f>
+        <f>MIN(DATA!H$2:H$100)</f>
         <v>0</v>
       </c>
       <c r="F4" s="8">
-        <f>MIN(DATA!I$2:I$101)</f>
+        <f>MIN(DATA!I$2:I$100)</f>
         <v>0</v>
       </c>
     </row>
@@ -1119,24 +930,24 @@
         <v>11</v>
       </c>
       <c r="B5" s="22">
-        <f>MAX(DATA!E$2:E$101)</f>
-        <v>3.1469999999999998E-2</v>
+        <f>MAX(DATA!E$2:E$100)</f>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="C5" s="8">
-        <f>MAX(DATA!F$2:F$101)</f>
-        <v>5.3579000000000002E-2</v>
+        <f>MAX(DATA!F$2:F$100)</f>
+        <v>9.0326000000000004E-2</v>
       </c>
       <c r="D5" s="8">
-        <f>MAX(DATA!G$2:G$101)</f>
+        <f>MAX(DATA!G$2:G$100)</f>
         <v>1</v>
       </c>
       <c r="E5" s="8">
-        <f>MAX(DATA!H$2:H$101)</f>
-        <v>0.95738500000000004</v>
+        <f>MAX(DATA!H$2:H$100)</f>
+        <v>0.938446</v>
       </c>
       <c r="F5" s="8">
-        <f>MAX(DATA!I$2:I$101)</f>
-        <v>0</v>
+        <f>MAX(DATA!I$2:I$100)</f>
+        <v>0.80209699999999995</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1144,24 +955,24 @@
         <v>12</v>
       </c>
       <c r="B6" s="22">
-        <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>9.6235999999999926E-3</v>
+        <f>AVERAGE(DATA!E$2:E$100)</f>
+        <v>8.3005050505050495E-3</v>
       </c>
       <c r="C6" s="8">
-        <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>2.79487E-2</v>
+        <f>AVERAGE(DATA!F$2:F$100)</f>
+        <v>1.3659404040404034E-2</v>
       </c>
       <c r="D6" s="8">
-        <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.83103067000000064</v>
+        <f>AVERAGE(DATA!G$2:G$100)</f>
+        <v>0.92117065656565733</v>
       </c>
       <c r="E6" s="8">
-        <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>0.64065485000000022</v>
-      </c>
-      <c r="F6" s="8" t="e">
-        <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <f>AVERAGE(DATA!H$2:H$100)</f>
+        <v>0.35183778787878789</v>
+      </c>
+      <c r="F6" s="8">
+        <f>AVERAGE(DATA!I$2:I$100)</f>
+        <v>0.20501035353535357</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1169,24 +980,24 @@
         <v>13</v>
       </c>
       <c r="B7" s="22">
-        <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>8.2299999999999995E-3</v>
+        <f>MEDIAN(DATA!E$2:E$100)</f>
+        <v>7.26E-3</v>
       </c>
       <c r="C7" s="8">
-        <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>4.0265999999999996E-2</v>
+        <f>MEDIAN(DATA!F$2:F$100)</f>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="D7" s="8">
-        <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.76294300000000004</v>
+        <f>MEDIAN(DATA!G$2:G$100)</f>
+        <v>0.96593799999999996</v>
       </c>
       <c r="E7" s="8">
-        <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>0.83650899999999995</v>
-      </c>
-      <c r="F7" s="8" t="e">
-        <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>#NUM!</v>
+        <f>MEDIAN(DATA!H$2:H$100)</f>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="F7" s="8">
+        <f>MEDIAN(DATA!I$2:I$100)</f>
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1194,24 +1005,24 @@
         <v>14</v>
       </c>
       <c r="B8" s="27">
-        <f>STDEV(DATA!E$2:E$101)</f>
-        <v>5.2153999856292084E-3</v>
+        <f>STDEV(DATA!E$2:E$100)</f>
+        <v>3.6192087797335994E-3</v>
       </c>
       <c r="C8" s="13">
-        <f>STDEV(DATA!F$2:F$101)</f>
-        <v>1.8929236135585809E-2</v>
+        <f>STDEV(DATA!F$2:F$100)</f>
+        <v>1.9961120784613845E-2</v>
       </c>
       <c r="D8" s="13">
-        <f>STDEV(DATA!G$2:G$101)</f>
-        <v>9.830268361956189E-2</v>
+        <f>STDEV(DATA!G$2:G$100)</f>
+        <v>8.9705755064300979E-2</v>
       </c>
       <c r="E8" s="13">
-        <f>STDEV(DATA!H$2:H$101)</f>
-        <v>0.29758733733223969</v>
-      </c>
-      <c r="F8" s="13" t="e">
-        <f>STDEV(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <f>STDEV(DATA!H$2:H$100)</f>
+        <v>0.28121914481829308</v>
+      </c>
+      <c r="F8" s="13">
+        <f>STDEV(DATA!I$2:I$100)</f>
+        <v>0.26041078355713904</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1262,13 +1073,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E879E283-F11F-BE4E-82D7-D1F9AF3BA95A}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1276,7 +1087,7 @@
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
@@ -1315,19 +1126,19 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="5">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C2" s="5" t="b">
         <v>1</v>
       </c>
       <c r="D2" s="25">
-        <v>652062.06213600002</v>
+        <v>652142.51881799998</v>
       </c>
       <c r="E2" s="21">
-        <v>8.9499999999999996E-3</v>
+        <v>8.3199999999999993E-3</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
@@ -1338,588 +1149,588 @@
       <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
+      <c r="I2" s="6">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>652220.11490699998</v>
+        <v>652170.714041</v>
       </c>
       <c r="E3" s="22">
-        <v>1.285E-2</v>
+        <v>7.26E-3</v>
       </c>
       <c r="F3" s="22">
-        <v>2.42E-4</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="G3" s="22">
-        <v>0.99887499999999996</v>
+        <v>0.98052399999999995</v>
       </c>
       <c r="H3" s="9">
-        <v>1.0024999999999999E-2</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
+        <v>0.14211799999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.9842000000000002E-2</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>103</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>652757.03789499996</v>
+        <v>652412.17707800004</v>
       </c>
       <c r="E4" s="22">
-        <v>1.409E-2</v>
+        <v>8.6400000000000001E-3</v>
       </c>
       <c r="F4" s="22">
-        <v>1.0660000000000001E-3</v>
+        <v>4.1300000000000001E-4</v>
       </c>
       <c r="G4" s="22">
-        <v>0.96398200000000001</v>
+        <v>0.98389199999999999</v>
       </c>
       <c r="H4" s="9">
-        <v>0.24024100000000001</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>0.12149699999999999</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.2819000000000001E-2</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>48</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>652757.03789499996</v>
+        <v>652454.02644299995</v>
       </c>
       <c r="E5" s="22">
-        <v>1.409E-2</v>
+        <v>6.62E-3</v>
       </c>
       <c r="F5" s="22">
-        <v>1.0660000000000001E-3</v>
+        <v>4.7800000000000002E-4</v>
       </c>
       <c r="G5" s="22">
-        <v>0.96398200000000001</v>
+        <v>0.98319000000000001</v>
       </c>
       <c r="H5" s="9">
-        <v>0.24024100000000001</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>0.117599</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.4329999999999999E-2</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>652906.89920999995</v>
+        <v>652711.26293099998</v>
       </c>
       <c r="E6" s="22">
-        <v>9.8099999999999993E-3</v>
+        <v>9.1900000000000003E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>1.2960000000000001E-3</v>
+        <v>8.7200000000000005E-4</v>
       </c>
       <c r="G6" s="22">
-        <v>0.98198700000000005</v>
+        <v>0.98663100000000004</v>
       </c>
       <c r="H6" s="9">
-        <v>0.13440199999999999</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>25</v>
+        <v>9.7915000000000002E-2</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2.7394999999999999E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" s="23">
-        <v>653227.08320999995</v>
+        <v>652990.80428499996</v>
       </c>
       <c r="E7" s="22">
-        <v>1.0630000000000001E-2</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="F7" s="22">
-        <v>1.787E-3</v>
+        <v>1.3010000000000001E-3</v>
       </c>
       <c r="G7" s="22">
-        <v>0.94582200000000005</v>
+        <v>0.98854500000000001</v>
       </c>
       <c r="H7" s="9">
-        <v>0.31002999999999997</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>27</v>
+        <v>9.1191999999999995E-2</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2.3324999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>653339.21734099998</v>
+        <v>652990.80436299997</v>
       </c>
       <c r="E8" s="22">
-        <v>8.3499999999999998E-3</v>
+        <v>6.8199999999999997E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>1.9589999999999998E-3</v>
+        <v>1.3010000000000001E-3</v>
       </c>
       <c r="G8" s="22">
-        <v>0.95177599999999996</v>
+        <v>0.98854500000000001</v>
       </c>
       <c r="H8" s="9">
-        <v>0.28272799999999998</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>29</v>
+        <v>9.1191999999999995E-2</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2.3324999999999999E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>93</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>653352.54543099995</v>
+        <v>653300.51193000004</v>
       </c>
       <c r="E9" s="22">
-        <v>9.9799999999999993E-3</v>
+        <v>8.9200000000000008E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>1.9789999999999999E-3</v>
+        <v>1.776E-3</v>
       </c>
       <c r="G9" s="22">
-        <v>0.95348999999999995</v>
+        <v>0.96981700000000004</v>
       </c>
       <c r="H9" s="9">
-        <v>0.29207499999999997</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>0.203707</v>
+      </c>
+      <c r="I9" s="1">
+        <v>6.2501000000000001E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>4</v>
+        <v>97</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>653436.05912700004</v>
+        <v>653300.51193000004</v>
       </c>
       <c r="E10" s="22">
-        <v>6.8700000000000002E-3</v>
+        <v>8.9200000000000008E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>2.1069999999999999E-3</v>
+        <v>1.776E-3</v>
       </c>
       <c r="G10" s="22">
-        <v>0.94680900000000001</v>
+        <v>0.96981700000000004</v>
       </c>
       <c r="H10" s="9">
-        <v>0.30361399999999999</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>0.203707</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.2501000000000001E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>653436.05912700004</v>
+        <v>653339.221609</v>
       </c>
       <c r="E11" s="22">
-        <v>6.8700000000000002E-3</v>
+        <v>8.3499999999999998E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>2.1069999999999999E-3</v>
+        <v>1.835E-3</v>
       </c>
       <c r="G11" s="22">
-        <v>0.94680900000000001</v>
+        <v>0.96051699999999995</v>
       </c>
       <c r="H11" s="9">
-        <v>0.30361399999999999</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>0.23094500000000001</v>
+      </c>
+      <c r="I11" s="1">
+        <v>8.3721000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>653438.41111700004</v>
+        <v>653342.91965000005</v>
       </c>
       <c r="E12" s="22">
-        <v>7.0000000000000001E-3</v>
+        <v>6.1700000000000001E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>2.111E-3</v>
+        <v>1.841E-3</v>
       </c>
       <c r="G12" s="22">
-        <v>0.94680900000000001</v>
+        <v>0.98831599999999997</v>
       </c>
       <c r="H12" s="9">
-        <v>0.30352000000000001</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>36</v>
+        <v>9.3974000000000002E-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.3695000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>83</v>
+        <v>59</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>653502.14659100003</v>
+        <v>653342.91965000005</v>
       </c>
       <c r="E13" s="22">
-        <v>2.496E-2</v>
+        <v>6.1700000000000001E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>2.209E-3</v>
+        <v>1.841E-3</v>
       </c>
       <c r="G13" s="22">
-        <v>0.97068600000000005</v>
+        <v>0.98831599999999997</v>
       </c>
       <c r="H13" s="9">
-        <v>0.203434</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>38</v>
+        <v>9.3974000000000002E-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2.3695000000000001E-2</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>80</v>
+        <v>35</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>653807.31710800005</v>
+        <v>653344.15857099998</v>
       </c>
       <c r="E14" s="22">
-        <v>1.1140000000000001E-2</v>
+        <v>7.43E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>2.6770000000000001E-3</v>
+        <v>1.843E-3</v>
       </c>
       <c r="G14" s="22">
-        <v>0.98441699999999999</v>
+        <v>0.95136399999999999</v>
       </c>
       <c r="H14" s="9">
-        <v>0.11823500000000001</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>40</v>
+        <v>0.29171200000000003</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.10414900000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>653878.47282699996</v>
+        <v>653352.14593</v>
       </c>
       <c r="E15" s="22">
-        <v>1.2019999999999999E-2</v>
+        <v>5.1599999999999997E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>2.7859999999999998E-3</v>
+        <v>1.8550000000000001E-3</v>
       </c>
       <c r="G15" s="22">
-        <v>0.97346999999999995</v>
+        <v>0.98742300000000005</v>
       </c>
       <c r="H15" s="9">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>42</v>
+        <v>8.7939000000000003E-2</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2.5687999999999999E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>653878.47282699996</v>
+        <v>653352.14593</v>
       </c>
       <c r="E16" s="22">
-        <v>1.2019999999999999E-2</v>
+        <v>5.1599999999999997E-3</v>
       </c>
       <c r="F16" s="22">
-        <v>2.7859999999999998E-3</v>
+        <v>1.8550000000000001E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.97346999999999995</v>
+        <v>0.98742300000000005</v>
       </c>
       <c r="H16" s="9">
-        <v>0.18709999999999999</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>42</v>
+        <v>8.7939000000000003E-2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2.5687999999999999E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>653912.36576299998</v>
+        <v>653352.14593</v>
       </c>
       <c r="E17" s="22">
-        <v>4.6699999999999997E-3</v>
+        <v>5.1599999999999997E-3</v>
       </c>
       <c r="F17" s="22">
-        <v>2.8379999999999998E-3</v>
+        <v>1.8550000000000001E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.93586800000000003</v>
+        <v>0.98742300000000005</v>
       </c>
       <c r="H17" s="9">
-        <v>0.37166399999999999</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>45</v>
+        <v>8.7939000000000003E-2</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2.5687999999999999E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>653912.36576299998</v>
+        <v>653378.289002</v>
       </c>
       <c r="E18" s="22">
-        <v>4.6699999999999997E-3</v>
+        <v>5.47E-3</v>
       </c>
       <c r="F18" s="22">
-        <v>2.8379999999999998E-3</v>
+        <v>1.895E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.93586800000000003</v>
+        <v>0.98648899999999995</v>
       </c>
       <c r="H18" s="9">
-        <v>0.37166399999999999</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>45</v>
+        <v>0.104369</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.7539000000000001E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>25</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>654050.41948200006</v>
+        <v>653400.057134</v>
       </c>
       <c r="E19" s="22">
-        <v>8.4799999999999997E-3</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>3.0490000000000001E-3</v>
+        <v>1.928E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.97216499999999995</v>
+        <v>0.95556399999999997</v>
       </c>
       <c r="H19" s="9">
-        <v>0.19345100000000001</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>48</v>
+        <v>0.26063399999999998</v>
+      </c>
+      <c r="I19" s="1">
+        <v>9.5479999999999995E-2</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>654050.41948200006</v>
+        <v>653400.057134</v>
       </c>
       <c r="E20" s="22">
-        <v>8.4799999999999997E-3</v>
+        <v>5.2100000000000002E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>3.0490000000000001E-3</v>
+        <v>1.928E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.97216499999999995</v>
+        <v>0.95556399999999997</v>
       </c>
       <c r="H20" s="9">
-        <v>0.19345100000000001</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>48</v>
+        <v>0.26063399999999998</v>
+      </c>
+      <c r="I20" s="1">
+        <v>9.5479999999999995E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>20</v>
+        <v>63</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>654075.81891000003</v>
+        <v>653410.56486100005</v>
       </c>
       <c r="E21" s="22">
-        <v>8.6999999999999994E-3</v>
+        <v>4.5399999999999998E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>3.088E-3</v>
+        <v>1.944E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.96925099999999997</v>
+        <v>0.97916499999999995</v>
       </c>
       <c r="H21" s="9">
-        <v>0.209035</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>51</v>
+        <v>0.15248200000000001</v>
+      </c>
+      <c r="I21" s="1">
+        <v>4.2925999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>654086.75085099996</v>
+        <v>653410.56486100005</v>
       </c>
       <c r="E22" s="22">
-        <v>2.7859999999999999E-2</v>
+        <v>4.5500000000000002E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>3.1050000000000001E-3</v>
+        <v>1.944E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.95977100000000004</v>
+        <v>0.97916499999999995</v>
       </c>
       <c r="H22" s="9">
-        <v>0.248474</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>53</v>
+        <v>0.15248200000000001</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4.2925999999999999E-2</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1927,2290 +1738,2261 @@
         <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>654309.89839900006</v>
+        <v>653438.41538499994</v>
       </c>
       <c r="E23" s="22">
-        <v>7.62E-3</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>3.447E-3</v>
+        <v>1.9870000000000001E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.93393099999999996</v>
+        <v>0.95556399999999997</v>
       </c>
       <c r="H23" s="9">
-        <v>0.380938</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>55</v>
+        <v>0.258849</v>
+      </c>
+      <c r="I23" s="1">
+        <v>9.5385999999999999E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>106</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>654309.89839900006</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E24" s="22">
-        <v>7.62E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>3.447E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.93393099999999996</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H24" s="9">
-        <v>0.380938</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>55</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>28</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>654535.96376499999</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E25" s="22">
-        <v>1.5890000000000001E-2</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>3.7940000000000001E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.94487299999999996</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H25" s="9">
-        <v>0.32032300000000002</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>58</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>654816.65335000004</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E26" s="22">
-        <v>1.176E-2</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>4.2240000000000003E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.97396000000000005</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H26" s="9">
-        <v>0.18587300000000001</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>60</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>654816.65335000004</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E27" s="22">
-        <v>1.176E-2</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>4.2240000000000003E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.97396000000000005</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H27" s="9">
-        <v>0.18587300000000001</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>60</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>655459.81288400001</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E28" s="22">
-        <v>1.9570000000000001E-2</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>5.2110000000000004E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.96894999999999998</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H28" s="9">
-        <v>0.21188699999999999</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>63</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I28" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>655669.74599099997</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E29" s="22">
-        <v>1.8839999999999999E-2</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>5.5329999999999997E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.96359600000000001</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H29" s="9">
-        <v>0.245531</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>65</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>655681.35977700003</v>
+        <v>653590.22282899998</v>
       </c>
       <c r="E30" s="22">
-        <v>7.0600000000000003E-3</v>
+        <v>5.0800000000000003E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>5.5510000000000004E-3</v>
+        <v>2.2200000000000002E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.95972800000000003</v>
+        <v>0.98508799999999996</v>
       </c>
       <c r="H30" s="9">
-        <v>0.25766</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>67</v>
+        <v>0.116594</v>
+      </c>
+      <c r="I30" s="1">
+        <v>3.0501E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>656487.71255299996</v>
+        <v>653636.43520499999</v>
       </c>
       <c r="E31" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>8.4899999999999993E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.2910000000000001E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.97768600000000006</v>
       </c>
       <c r="H31" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>69</v>
+        <v>0.162109</v>
+      </c>
+      <c r="I31" s="1">
+        <v>4.6059000000000003E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>656487.71255299996</v>
+        <v>653636.43520499999</v>
       </c>
       <c r="E32" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>8.4899999999999993E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.2910000000000001E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.97768600000000006</v>
       </c>
       <c r="H32" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>69</v>
+        <v>0.162109</v>
+      </c>
+      <c r="I32" s="1">
+        <v>4.6059000000000003E-2</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>656487.71255299996</v>
+        <v>653637.80139899999</v>
       </c>
       <c r="E33" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>3.48E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.2929999999999999E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.97112399999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>69</v>
+        <v>0.19172800000000001</v>
+      </c>
+      <c r="I33" s="1">
+        <v>5.9728000000000003E-2</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>656487.71255299996</v>
+        <v>653912.370031</v>
       </c>
       <c r="E34" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.7139999999999998E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.94459199999999999</v>
       </c>
       <c r="H34" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>69</v>
+        <v>0.32934000000000002</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0.118838</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>656487.71255299996</v>
+        <v>653912.370031</v>
       </c>
       <c r="E35" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>4.6699999999999997E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.7139999999999998E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.94459199999999999</v>
       </c>
       <c r="H35" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>0.32934000000000002</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.118838</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>52</v>
+        <v>38</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>656487.71255299996</v>
+        <v>654060.63509999996</v>
       </c>
       <c r="E36" s="22">
-        <v>4.5599999999999998E-3</v>
+        <v>1.0659999999999999E-2</v>
       </c>
       <c r="F36" s="22">
-        <v>6.7869999999999996E-3</v>
+        <v>2.941E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.95073799999999997</v>
+        <v>0.95550800000000002</v>
       </c>
       <c r="H36" s="9">
-        <v>0.30999399999999999</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>69</v>
+        <v>0.264982</v>
+      </c>
+      <c r="I36" s="1">
+        <v>9.5334000000000002E-2</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>657806.57683899999</v>
+        <v>654237.75485599996</v>
       </c>
       <c r="E37" s="22">
-        <v>7.8499999999999993E-3</v>
+        <v>5.3299999999999997E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>8.8100000000000001E-3</v>
+        <v>3.2130000000000001E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.89673800000000004</v>
+        <v>0.970387</v>
       </c>
       <c r="H37" s="9">
-        <v>0.53264299999999998</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>76</v>
+        <v>0.20507800000000001</v>
+      </c>
+      <c r="I37" s="1">
+        <v>6.1879000000000003E-2</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>666256.93177499995</v>
+        <v>654309.90266699996</v>
       </c>
       <c r="E38" s="22">
-        <v>3.6600000000000001E-3</v>
+        <v>7.62E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>2.1769E-2</v>
+        <v>3.323E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.83943299999999998</v>
+        <v>0.94264899999999996</v>
       </c>
       <c r="H38" s="9">
-        <v>0.67005300000000001</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>78</v>
+        <v>0.33827499999999999</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.122846</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>668775.35824199999</v>
+        <v>654315.28200699994</v>
       </c>
       <c r="E39" s="22">
-        <v>7.1199999999999996E-3</v>
+        <v>5.1000000000000004E-3</v>
       </c>
       <c r="F39" s="22">
-        <v>2.5631000000000001E-2</v>
+        <v>3.3319999999999999E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.82090300000000005</v>
+        <v>0.96912500000000001</v>
       </c>
       <c r="H39" s="9">
-        <v>0.74241599999999996</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>80</v>
+        <v>0.21060599999999999</v>
+      </c>
+      <c r="I39" s="1">
+        <v>6.4660999999999996E-2</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>669676.16575399996</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E40" s="22">
-        <v>7.7400000000000004E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F40" s="22">
-        <v>2.7012999999999999E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.82340800000000003</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H40" s="9">
-        <v>0.73372499999999996</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>82</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I40" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>670617.59649899998</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E41" s="22">
-        <v>1.7170000000000001E-2</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F41" s="22">
-        <v>2.8457E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G41" s="22">
-        <v>0.806647</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H41" s="9">
-        <v>0.78306200000000004</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>84</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>670727.14972999995</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E42" s="22">
-        <v>3.31E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F42" s="22">
-        <v>2.8625000000000001E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G42" s="22">
-        <v>0.81255100000000002</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H42" s="9">
-        <v>0.75638000000000005</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>86</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I42" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>676629.17980699998</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E43" s="22">
-        <v>1.085E-2</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F43" s="22">
-        <v>3.7676000000000001E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G43" s="22">
-        <v>0.773756</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H43" s="9">
-        <v>0.84279599999999999</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>88</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>676629.17980699998</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E44" s="22">
-        <v>1.085E-2</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F44" s="22">
-        <v>3.7676000000000001E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G44" s="22">
-        <v>0.773756</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H44" s="9">
-        <v>0.84279599999999999</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>88</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I44" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>676797.96711600001</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E45" s="22">
-        <v>5.8599999999999998E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F45" s="22">
-        <v>3.7935000000000003E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G45" s="22">
-        <v>0.77717700000000001</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H45" s="9">
-        <v>0.83574199999999998</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>91</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I45" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>676797.96711600001</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E46" s="22">
-        <v>5.8599999999999998E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F46" s="22">
-        <v>3.7935000000000003E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G46" s="22">
-        <v>0.77717700000000001</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H46" s="9">
-        <v>0.83574199999999998</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>91</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I46" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>58</v>
+        <v>11</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>676891.60395200003</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E47" s="22">
-        <v>6.1999999999999998E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F47" s="22">
-        <v>3.8078000000000001E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G47" s="22">
-        <v>0.77647999999999995</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H47" s="9">
-        <v>0.83650899999999995</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>94</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I47" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>676891.60395200003</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E48" s="22">
-        <v>6.1999999999999998E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F48" s="22">
-        <v>3.8078000000000001E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G48" s="22">
-        <v>0.77647999999999995</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H48" s="9">
-        <v>0.83650899999999995</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>94</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I48" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>677360.69588100002</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E49" s="22">
-        <v>1.291E-2</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F49" s="22">
-        <v>3.8797999999999999E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G49" s="22">
-        <v>0.778196</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H49" s="9">
-        <v>0.82871799999999995</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>97</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I49" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>51</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>677879.20065300004</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E50" s="22">
-        <v>9.7400000000000004E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F50" s="22">
-        <v>3.9593000000000003E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G50" s="22">
-        <v>0.76493</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H50" s="9">
-        <v>0.85575100000000004</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>99</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I50" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>678040.39207599999</v>
+        <v>654473.95454299997</v>
       </c>
       <c r="E51" s="22">
-        <v>9.7699999999999992E-3</v>
+        <v>1.2160000000000001E-2</v>
       </c>
       <c r="F51" s="22">
-        <v>3.984E-2</v>
+        <v>3.5750000000000001E-3</v>
       </c>
       <c r="G51" s="22">
-        <v>0.76338700000000004</v>
+        <v>0.97611400000000004</v>
       </c>
       <c r="H51" s="9">
-        <v>0.86453000000000002</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>101</v>
+        <v>0.17640900000000001</v>
+      </c>
+      <c r="I51" s="1">
+        <v>4.9305000000000002E-2</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>678596.00974300003</v>
+        <v>654703.75622800004</v>
       </c>
       <c r="E52" s="22">
-        <v>8.8699999999999994E-3</v>
+        <v>3.0500000000000002E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>4.0691999999999999E-2</v>
+        <v>3.9269999999999999E-3</v>
       </c>
       <c r="G52" s="22">
-        <v>0.75944699999999998</v>
+        <v>0.96704400000000001</v>
       </c>
       <c r="H52" s="9">
-        <v>0.87185199999999996</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>103</v>
+        <v>0.22536200000000001</v>
+      </c>
+      <c r="I52" s="1">
+        <v>6.8590999999999999E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>61</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>678604.75767399999</v>
+        <v>654784.39374700002</v>
       </c>
       <c r="E53" s="22">
-        <v>6.9800000000000001E-3</v>
+        <v>1.0659999999999999E-2</v>
       </c>
       <c r="F53" s="22">
-        <v>4.0705999999999999E-2</v>
+        <v>4.0509999999999999E-3</v>
       </c>
       <c r="G53" s="22">
-        <v>0.75982499999999997</v>
+        <v>0.96622799999999998</v>
       </c>
       <c r="H53" s="9">
-        <v>0.87096099999999999</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>105</v>
+        <v>0.22820799999999999</v>
+      </c>
+      <c r="I53" s="1">
+        <v>7.1032999999999999E-2</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>64</v>
+        <v>31</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>678688.07127199997</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E54" s="22">
-        <v>7.4700000000000001E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F54" s="22">
-        <v>4.0834000000000002E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G54" s="22">
-        <v>0.75888199999999995</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H54" s="9">
-        <v>0.87159600000000004</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>103</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I54" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>678688.07127199997</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E55" s="22">
-        <v>7.4700000000000001E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F55" s="22">
-        <v>4.0834000000000002E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G55" s="22">
-        <v>0.75888199999999995</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H55" s="9">
-        <v>0.87159600000000004</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>103</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I55" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>678799.89898299996</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E56" s="22">
-        <v>5.45E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F56" s="22">
-        <v>4.1005E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G56" s="22">
-        <v>0.76249900000000004</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H56" s="9">
-        <v>0.86362399999999995</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>109</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I56" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>678799.89898299996</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E57" s="22">
-        <v>5.45E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F57" s="22">
-        <v>4.1005E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G57" s="22">
-        <v>0.76249900000000004</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H57" s="9">
-        <v>0.86362399999999995</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>109</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I57" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>679117.19657399994</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E58" s="22">
-        <v>3.8800000000000002E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F58" s="22">
-        <v>4.1492000000000001E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G58" s="22">
-        <v>0.75802499999999995</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H58" s="9">
-        <v>0.87478699999999998</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>112</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I58" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>679117.19657399994</v>
+        <v>654942.14765399997</v>
       </c>
       <c r="E59" s="22">
-        <v>3.8800000000000002E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F59" s="22">
-        <v>4.1492000000000001E-2</v>
+        <v>4.2929999999999999E-3</v>
       </c>
       <c r="G59" s="22">
-        <v>0.75802499999999995</v>
+        <v>0.96593799999999996</v>
       </c>
       <c r="H59" s="9">
-        <v>0.87478699999999998</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>112</v>
+        <v>0.23810300000000001</v>
+      </c>
+      <c r="I59" s="1">
+        <v>7.1759000000000003E-2</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>679171.74787299999</v>
+        <v>655076.75766899996</v>
       </c>
       <c r="E60" s="22">
-        <v>1.136E-2</v>
+        <v>5.3099999999999996E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>4.1575000000000001E-2</v>
+        <v>4.4990000000000004E-3</v>
       </c>
       <c r="G60" s="22">
-        <v>0.76072499999999998</v>
+        <v>0.95937700000000004</v>
       </c>
       <c r="H60" s="9">
-        <v>0.86709400000000003</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>115</v>
+        <v>0.26618900000000001</v>
+      </c>
+      <c r="I60" s="1">
+        <v>8.5849999999999996E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>679171.74787299999</v>
+        <v>655142.55464600003</v>
       </c>
       <c r="E61" s="22">
-        <v>1.136E-2</v>
+        <v>5.3099999999999996E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>4.1575000000000001E-2</v>
+        <v>4.5999999999999999E-3</v>
       </c>
       <c r="G61" s="22">
-        <v>0.76072499999999998</v>
+        <v>0.958399</v>
       </c>
       <c r="H61" s="9">
-        <v>0.86709400000000003</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>115</v>
+        <v>0.27063100000000001</v>
+      </c>
+      <c r="I61" s="1">
+        <v>8.8093000000000005E-2</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>679171.74787299999</v>
+        <v>655166.33271800005</v>
       </c>
       <c r="E62" s="22">
-        <v>1.136E-2</v>
+        <v>1.6400000000000001E-2</v>
       </c>
       <c r="F62" s="22">
-        <v>4.1575000000000001E-2</v>
+        <v>4.6369999999999996E-3</v>
       </c>
       <c r="G62" s="22">
-        <v>0.76072499999999998</v>
+        <v>0.960592</v>
       </c>
       <c r="H62" s="9">
-        <v>0.86709400000000003</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>115</v>
+        <v>0.27168300000000001</v>
+      </c>
+      <c r="I62" s="1">
+        <v>8.3538000000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>87</v>
+        <v>23</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>21</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>679171.74787299999</v>
+        <v>655193.62473299995</v>
       </c>
       <c r="E63" s="22">
-        <v>1.136E-2</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>4.1575000000000001E-2</v>
+        <v>4.679E-3</v>
       </c>
       <c r="G63" s="22">
-        <v>0.76072499999999998</v>
+        <v>0.97163600000000006</v>
       </c>
       <c r="H63" s="9">
-        <v>0.86709400000000003</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>115</v>
+        <v>0.20164599999999999</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5.8886000000000001E-2</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>119</v>
+        <v>55</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>679194.506008</v>
+        <v>655193.62473299995</v>
       </c>
       <c r="E64" s="22">
-        <v>2.4199999999999998E-3</v>
+        <v>5.2300000000000003E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>4.1610000000000001E-2</v>
+        <v>4.679E-3</v>
       </c>
       <c r="G64" s="22">
-        <v>0.75739599999999996</v>
+        <v>0.97163600000000006</v>
       </c>
       <c r="H64" s="9">
-        <v>0.87570999999999999</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>120</v>
+        <v>0.20164599999999999</v>
+      </c>
+      <c r="I64" s="1">
+        <v>5.8886000000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>121</v>
+        <v>98</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>679194.506008</v>
+        <v>655196.41903300001</v>
       </c>
       <c r="E65" s="22">
-        <v>2.4199999999999998E-3</v>
+        <v>5.3099999999999996E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>4.1610000000000001E-2</v>
+        <v>4.6829999999999997E-3</v>
       </c>
       <c r="G65" s="22">
-        <v>0.75739599999999996</v>
+        <v>0.95871200000000001</v>
       </c>
       <c r="H65" s="9">
-        <v>0.87570999999999999</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>120</v>
+        <v>0.26905000000000001</v>
+      </c>
+      <c r="I65" s="1">
+        <v>8.7368000000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>33</v>
+        <v>99</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>122</v>
+        <v>84</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>679593.62428900006</v>
+        <v>655196.48611499998</v>
       </c>
       <c r="E66" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>1.567E-2</v>
       </c>
       <c r="F66" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>4.6829999999999997E-3</v>
       </c>
       <c r="G66" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.96044700000000005</v>
       </c>
       <c r="H66" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>123</v>
+        <v>0.27251799999999998</v>
+      </c>
+      <c r="I66" s="1">
+        <v>8.3850999999999995E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>679593.62428900006</v>
+        <v>655681.36422300001</v>
       </c>
       <c r="E67" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>5.4260000000000003E-3</v>
       </c>
       <c r="G67" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.96252700000000002</v>
       </c>
       <c r="H67" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>123</v>
+        <v>0.24390800000000001</v>
+      </c>
+      <c r="I67" s="1">
+        <v>7.8597E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>125</v>
+        <v>47</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>679593.62428900006</v>
+        <v>655681.36422300001</v>
       </c>
       <c r="E68" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>7.0600000000000003E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>5.4260000000000003E-3</v>
       </c>
       <c r="G68" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.96252700000000002</v>
       </c>
       <c r="H68" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>123</v>
+        <v>0.24390800000000001</v>
+      </c>
+      <c r="I68" s="1">
+        <v>7.8597E-2</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>679593.62428900006</v>
+        <v>656142.57886999997</v>
       </c>
       <c r="E69" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>1.15E-2</v>
       </c>
       <c r="F69" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>6.1339999999999997E-3</v>
       </c>
       <c r="G69" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.96427300000000005</v>
       </c>
       <c r="H69" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>123</v>
+        <v>0.23822099999999999</v>
+      </c>
+      <c r="I69" s="1">
+        <v>7.4505000000000002E-2</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>127</v>
+        <v>99</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>679593.62428900006</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E70" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G70" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H70" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>123</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I70" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>128</v>
+        <v>100</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>679593.62428900006</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E71" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G71" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H71" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>123</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I71" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>679593.62428900006</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E72" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G72" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H72" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>123</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I72" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>130</v>
+        <v>65</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>679593.62428900006</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E73" s="22">
-        <v>8.2299999999999995E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>4.2222000000000003E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G73" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H73" s="9">
-        <v>0.85455899999999996</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>123</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I73" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>679628.85396600002</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E74" s="22">
-        <v>1.6820000000000002E-2</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>4.2276000000000001E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G74" s="22">
-        <v>0.75877899999999998</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H74" s="9">
-        <v>0.84270299999999998</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>132</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I74" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>21</v>
+        <v>57</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>85</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>680093.41145500005</v>
+        <v>656487.71690400003</v>
       </c>
       <c r="E75" s="22">
-        <v>6.8599999999999998E-3</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>4.2988999999999999E-2</v>
+        <v>6.6629999999999997E-3</v>
       </c>
       <c r="G75" s="22">
-        <v>0.75966100000000003</v>
+        <v>0.95355100000000004</v>
       </c>
       <c r="H75" s="9">
-        <v>0.84456299999999995</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>134</v>
+        <v>0.29624499999999998</v>
+      </c>
+      <c r="I75" s="1">
+        <v>9.8570000000000005E-2</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>135</v>
+        <v>58</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>680100.54464600002</v>
+        <v>657083.77421599999</v>
       </c>
       <c r="E76" s="22">
-        <v>1.755E-2</v>
+        <v>1.4659999999999999E-2</v>
       </c>
       <c r="F76" s="22">
-        <v>4.2999999999999997E-2</v>
+        <v>7.5770000000000004E-3</v>
       </c>
       <c r="G76" s="22">
-        <v>0.75877899999999998</v>
+        <v>0.90661400000000003</v>
       </c>
       <c r="H76" s="9">
-        <v>0.84376899999999999</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>136</v>
+        <v>0.494533</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0.21162500000000001</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>137</v>
+        <v>112</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>680100.54464600002</v>
+        <v>664114.43069499999</v>
       </c>
       <c r="E77" s="22">
-        <v>1.755E-2</v>
+        <v>4.5799999999999999E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>4.2999999999999997E-2</v>
+        <v>1.8357999999999999E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.75877899999999998</v>
+        <v>0.85779700000000003</v>
       </c>
       <c r="H77" s="9">
-        <v>0.84376899999999999</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>136</v>
+        <v>0.64115</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0.35566300000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>138</v>
+        <v>105</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>680100.54464600002</v>
+        <v>668170.936674</v>
       </c>
       <c r="E78" s="22">
-        <v>1.755E-2</v>
+        <v>4.47E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>4.2999999999999997E-2</v>
+        <v>2.4577999999999999E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.75877899999999998</v>
+        <v>0.83640199999999998</v>
       </c>
       <c r="H78" s="9">
-        <v>0.84376899999999999</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>136</v>
+        <v>0.68920499999999996</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0.421929</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>139</v>
+        <v>69</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>680326.49483700003</v>
+        <v>669951.42685699998</v>
       </c>
       <c r="E79" s="22">
-        <v>7.4700000000000001E-3</v>
+        <v>7.1199999999999996E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>4.3346000000000003E-2</v>
+        <v>2.7307999999999999E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.75677000000000005</v>
+        <v>0.82054700000000003</v>
       </c>
       <c r="H79" s="9">
-        <v>0.85178200000000004</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>140</v>
+        <v>0.73736800000000002</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0.47510599999999997</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>141</v>
+        <v>26</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>680467.03379999998</v>
+        <v>671401.18904099998</v>
       </c>
       <c r="E80" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>1.325E-2</v>
       </c>
       <c r="F80" s="22">
-        <v>4.3561999999999997E-2</v>
+        <v>2.9531000000000002E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.74603699999999995</v>
+        <v>0.81892200000000004</v>
       </c>
       <c r="H80" s="9">
-        <v>0.89030699999999996</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>142</v>
+        <v>0.74404400000000004</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0.47899599999999998</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>143</v>
+        <v>81</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>680549.53727800003</v>
+        <v>675109.41997499997</v>
       </c>
       <c r="E81" s="22">
-        <v>5.5700000000000003E-3</v>
+        <v>9.3600000000000003E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>4.3687999999999998E-2</v>
+        <v>3.5217999999999999E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.74522900000000003</v>
+        <v>0.79347199999999996</v>
       </c>
       <c r="H81" s="9">
-        <v>0.92200199999999999</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>144</v>
+        <v>0.78952699999999998</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0.57068700000000006</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>89</v>
+        <v>30</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>680733.19998799998</v>
+        <v>678604.76145400002</v>
       </c>
       <c r="E82" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>6.9800000000000001E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>4.3970000000000002E-2</v>
+        <v>4.0577000000000002E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.74552499999999999</v>
+        <v>0.76884200000000003</v>
       </c>
       <c r="H82" s="9">
-        <v>0.89211799999999997</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>146</v>
+        <v>0.85289099999999995</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0.65912899999999996</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>147</v>
+        <v>45</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>680733.19998799998</v>
+        <v>678604.76145400002</v>
       </c>
       <c r="E83" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>6.9800000000000001E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>4.3970000000000002E-2</v>
+        <v>4.0577000000000002E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.74552499999999999</v>
+        <v>0.76884200000000003</v>
       </c>
       <c r="H83" s="9">
-        <v>0.89211799999999997</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>146</v>
+        <v>0.85289099999999995</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0.65912899999999996</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>37</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>680733.19998799998</v>
+        <v>679132.36393800005</v>
       </c>
       <c r="E84" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>6.2199999999999998E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>4.3970000000000002E-2</v>
+        <v>4.1385999999999999E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.74552499999999999</v>
+        <v>0.77063599999999999</v>
       </c>
       <c r="H84" s="9">
-        <v>0.89211799999999997</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>146</v>
+        <v>0.82658200000000004</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0.65344800000000003</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>680946.02156499994</v>
+        <v>680326.49861600006</v>
       </c>
       <c r="E85" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>7.4700000000000001E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>4.4296000000000002E-2</v>
+        <v>4.3217999999999999E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.75196799999999997</v>
+        <v>0.76582700000000004</v>
       </c>
       <c r="H85" s="9">
-        <v>0.85761399999999999</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>150</v>
+        <v>0.83428100000000005</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0.66600899999999996</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>151</v>
+        <v>40</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>680946.02156499994</v>
+        <v>680767.52541100001</v>
       </c>
       <c r="E86" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>7.9000000000000008E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>4.4296000000000002E-2</v>
+        <v>4.3894000000000002E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.75196799999999997</v>
+        <v>0.76290100000000005</v>
       </c>
       <c r="H86" s="9">
-        <v>0.85761399999999999</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>150</v>
+        <v>0.84342200000000001</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0.67989999999999995</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>680946.02156499994</v>
+        <v>681536.07082499994</v>
       </c>
       <c r="E87" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>7.3899999999999999E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>4.4296000000000002E-2</v>
+        <v>4.5072000000000001E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.75196799999999997</v>
+        <v>0.75199400000000005</v>
       </c>
       <c r="H87" s="9">
-        <v>0.85761399999999999</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>150</v>
+        <v>0.87191399999999997</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0.71717600000000004</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>17</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>680946.02156499994</v>
+        <v>682028.83444600005</v>
       </c>
       <c r="E88" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>1.1849999999999999E-2</v>
       </c>
       <c r="F88" s="22">
-        <v>4.4296000000000002E-2</v>
+        <v>4.5828000000000001E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.75196799999999997</v>
+        <v>0.75455799999999995</v>
       </c>
       <c r="H88" s="9">
-        <v>0.85761399999999999</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>150</v>
+        <v>0.87706099999999998</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0.71034900000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>154</v>
+        <v>59</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>680946.02156499994</v>
+        <v>682225.93238100002</v>
       </c>
       <c r="E89" s="22">
-        <v>7.3200000000000001E-3</v>
+        <v>1.2710000000000001E-2</v>
       </c>
       <c r="F89" s="22">
-        <v>4.4296000000000002E-2</v>
+        <v>4.6129999999999997E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.75196799999999997</v>
+        <v>0.75588200000000005</v>
       </c>
       <c r="H89" s="9">
-        <v>0.85761399999999999</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>150</v>
+        <v>0.85058599999999995</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0.70187100000000002</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>155</v>
+        <v>33</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>681237.02329200006</v>
+        <v>682384.17277299997</v>
       </c>
       <c r="E90" s="22">
-        <v>1.014E-2</v>
+        <v>7.62E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>4.4742999999999998E-2</v>
+        <v>4.6372999999999998E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.73983399999999999</v>
+        <v>0.74396700000000004</v>
       </c>
       <c r="H90" s="9">
-        <v>0.93396000000000001</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>156</v>
+        <v>0.92764000000000002</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0.74521899999999996</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>681614.31873399997</v>
+        <v>682914.93983499997</v>
       </c>
       <c r="E91" s="22">
-        <v>1.4409999999999999E-2</v>
+        <v>8.5500000000000003E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>4.5321E-2</v>
+        <v>4.7187E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.73529599999999995</v>
+        <v>0.75014999999999998</v>
       </c>
       <c r="H91" s="9">
-        <v>0.94674700000000001</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>158</v>
+        <v>0.84545599999999999</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0.70915300000000003</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>91</v>
+        <v>8</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>159</v>
+        <v>49</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>681847.34314100002</v>
+        <v>682917.03976800002</v>
       </c>
       <c r="E92" s="22">
-        <v>7.5199999999999998E-3</v>
+        <v>4.5300000000000002E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>4.5678999999999997E-2</v>
+        <v>4.7190000000000003E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.73568800000000001</v>
+        <v>0.74157099999999998</v>
       </c>
       <c r="H92" s="9">
-        <v>0.93704699999999996</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>160</v>
+        <v>0.938446</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0.75349900000000003</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>161</v>
+        <v>24</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>682260.78354700003</v>
+        <v>683977.80618399999</v>
       </c>
       <c r="E93" s="22">
-        <v>7.8600000000000007E-3</v>
+        <v>1.061E-2</v>
       </c>
       <c r="F93" s="22">
-        <v>4.6313E-2</v>
+        <v>4.8815999999999998E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.73467400000000005</v>
+        <v>0.74011400000000005</v>
       </c>
       <c r="H93" s="9">
-        <v>0.93851200000000001</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>162</v>
+        <v>0.84214500000000003</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0.72179700000000002</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
+        <v>41</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>163</v>
-      </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>682669.40610400005</v>
+        <v>683996.96524399996</v>
       </c>
       <c r="E94" s="22">
-        <v>5.5199999999999997E-3</v>
+        <v>6.6699999999999997E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>4.6939000000000002E-2</v>
+        <v>4.8846000000000001E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.73071699999999995</v>
+        <v>0.74448199999999998</v>
       </c>
       <c r="H94" s="9">
-        <v>0.95738500000000004</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>164</v>
+        <v>0.81040599999999996</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0.68004799999999999</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>165</v>
+        <v>56</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>683233.78980000003</v>
+        <v>684649.478351</v>
       </c>
       <c r="E95" s="22">
-        <v>1.4279999999999999E-2</v>
+        <v>8.6199999999999992E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>4.7805E-2</v>
+        <v>4.9846000000000001E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.73475900000000005</v>
+        <v>0.744255</v>
       </c>
       <c r="H95" s="9">
-        <v>0.82568900000000001</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>166</v>
+        <v>0.81677</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0.690025</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>82</v>
+        <v>43</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>167</v>
+        <v>23</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>683282.29568500002</v>
+        <v>685511.99173100002</v>
       </c>
       <c r="E96" s="22">
-        <v>1.4710000000000001E-2</v>
+        <v>1.5180000000000001E-2</v>
       </c>
       <c r="F96" s="22">
-        <v>4.7878999999999998E-2</v>
+        <v>5.1168999999999999E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.737483</v>
+        <v>0.72139699999999995</v>
       </c>
       <c r="H96" s="9">
-        <v>0.82519699999999996</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>168</v>
+        <v>0.93074199999999996</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0.80209699999999995</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>169</v>
+        <v>66</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>683630.44019600004</v>
+        <v>686491.15446500003</v>
       </c>
       <c r="E97" s="22">
-        <v>3.1469999999999998E-2</v>
+        <v>9.0399999999999994E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>4.8412999999999998E-2</v>
+        <v>5.2670000000000002E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.73778500000000002</v>
+        <v>0.72738999999999998</v>
       </c>
       <c r="H97" s="9">
-        <v>0.90740900000000002</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>170</v>
+        <v>0.89595899999999995</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0.76266599999999996</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>683694.72064700001</v>
+        <v>691300.23063500004</v>
       </c>
       <c r="E98" s="22">
-        <v>3.8600000000000001E-3</v>
+        <v>4.2100000000000002E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>4.8512E-2</v>
+        <v>6.0045000000000001E-2</v>
       </c>
       <c r="G98" s="22">
-        <v>0.73623099999999997</v>
+        <v>0.74438300000000002</v>
       </c>
       <c r="H98" s="9">
-        <v>0.82358500000000001</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>172</v>
+        <v>0.85917500000000002</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0.72105200000000003</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>684610.88441000006</v>
+        <v>705186.30026399996</v>
       </c>
       <c r="E99" s="22">
-        <v>8.6199999999999992E-3</v>
+        <v>9.5999999999999992E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>4.9917000000000003E-2</v>
+        <v>8.1337999999999994E-2</v>
       </c>
       <c r="G99" s="22">
-        <v>0.73555700000000002</v>
+        <v>0.80836699999999995</v>
       </c>
       <c r="H99" s="9">
-        <v>0.82767999999999997</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>174</v>
+        <v>0.72586300000000004</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0.53126200000000001</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>93</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>684633.28515600006</v>
+        <v>711047.99685800006</v>
       </c>
       <c r="E100" s="22">
-        <v>1.576E-2</v>
+        <v>9.9299999999999996E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>4.9951000000000002E-2</v>
+        <v>9.0326000000000004E-2</v>
       </c>
       <c r="G100" s="22">
-        <v>0.73519100000000004</v>
+        <v>0.74066399999999999</v>
       </c>
       <c r="H100" s="9">
-        <v>0.83240099999999995</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A101">
-        <v>34</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C101" t="b">
-        <v>1</v>
-      </c>
-      <c r="D101" s="23">
-        <v>686998.58153900004</v>
-      </c>
-      <c r="E101" s="22">
-        <v>2.2329999999999999E-2</v>
-      </c>
-      <c r="F101" s="22">
-        <v>5.3579000000000002E-2</v>
-      </c>
-      <c r="G101" s="22">
-        <v>0.71484000000000003</v>
-      </c>
-      <c r="H101" s="9">
-        <v>0.91323299999999996</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>178</v>
+        <v>0.83539399999999997</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0.72091300000000003</v>
       </c>
     </row>
   </sheetData>

--- a/maps/CT/CT20C_candidates.xlsx
+++ b/maps/CT/CT20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/CT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74EACEA-BB92-544A-A218-6004C883060B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6A2C25-36AC-9043-957A-4D55D2339FD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1120" yWindow="560" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -1079,7 +1079,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
